--- a/src/data/lluvia_generada.xlsx
+++ b/src/data/lluvia_generada.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -513,16 +513,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -603,13 +603,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -818,16 +818,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1238,25 +1238,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1331,16 +1331,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1474,13 +1474,13 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1518,25 +1518,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1555,13 +1555,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1586,13 +1586,13 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1602,13 +1602,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1636,16 +1636,16 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1664,19 +1664,19 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1686,25 +1686,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -1742,13 +1742,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -1770,25 +1770,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1857,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -1910,16 +1910,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1938,22 +1938,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -1997,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2149,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2162,13 +2162,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2196,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2246,25 +2246,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2277,22 +2277,22 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2314,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2333,22 +2333,22 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -2367,16 +2367,16 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2386,19 +2386,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2585,19 +2585,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2622,13 +2622,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2638,25 +2638,25 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2666,25 +2666,25 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2694,13 +2694,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2722,25 +2722,25 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2750,16 +2750,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -2787,16 +2787,16 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2905,10 +2905,10 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2946,13 +2946,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -2977,16 +2977,16 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3002,22 +3002,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -3058,13 +3058,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3170,22 +3170,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3288,19 +3288,19 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3425,16 +3425,16 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -3453,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3484,19 +3484,19 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3543,16 +3543,16 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3562,13 +3562,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3590,19 +3590,19 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3655,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -3770,13 +3770,13 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3795,16 +3795,16 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3845,16 +3845,16 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -3870,22 +3870,22 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3929,19 +3929,19 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4131,16 +4131,16 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4150,25 +4150,25 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -4181,22 +4181,22 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4206,16 +4206,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -4243,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -4265,22 +4265,22 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -4290,13 +4290,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -4330,13 +4330,13 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4349,22 +4349,22 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4374,25 +4374,25 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4402,13 +4402,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>1</v>
@@ -4445,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4458,22 +4458,22 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -4557,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4579,16 +4579,16 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4598,13 +4598,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -4635,13 +4635,13 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -4682,10 +4682,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -4710,10 +4710,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -4722,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4750,13 +4750,13 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -4794,25 +4794,25 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4853,22 +4853,22 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4878,22 +4878,22 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4962,10 +4962,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4990,16 +4990,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -5008,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -5030,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5074,19 +5074,19 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5105,22 +5105,22 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -5158,25 +5158,25 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -5186,25 +5186,25 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -5214,25 +5214,25 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5282,13 +5282,13 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5301,22 +5301,22 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>1</v>
@@ -5357,10 +5357,10 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>1</v>
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5394,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>1</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -5472,16 +5472,16 @@
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -5509,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -5525,13 +5525,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -5550,22 +5550,22 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -5606,25 +5606,25 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -5646,13 +5646,13 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5780,13 +5780,13 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5811,16 +5811,16 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5830,22 +5830,22 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -5889,22 +5889,22 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -5923,13 +5923,13 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
@@ -5942,10 +5942,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
         <v>1</v>
@@ -5954,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -5982,13 +5982,13 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -6032,19 +6032,19 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -6057,22 +6057,22 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -6094,13 +6094,13 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -6110,10 +6110,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -6141,19 +6141,19 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -6169,19 +6169,19 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6200,19 +6200,19 @@
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -6222,22 +6222,22 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
@@ -6256,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -6309,19 +6309,19 @@
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
@@ -6346,13 +6346,13 @@
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -6365,10 +6365,10 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -6421,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -6449,19 +6449,19 @@
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -6480,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -6502,19 +6502,19 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -6564,19 +6564,19 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -6586,10 +6586,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -6598,13 +6598,13 @@
         <v>1</v>
       </c>
       <c r="F220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -6614,22 +6614,22 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -6676,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -6713,10 +6713,10 @@
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -6726,25 +6726,25 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -6769,10 +6769,10 @@
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6794,13 +6794,13 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -6810,10 +6810,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -6841,16 +6841,16 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -6869,10 +6869,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
@@ -6881,10 +6881,10 @@
         <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6897,19 +6897,19 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231" t="n">
         <v>1</v>
@@ -6931,10 +6931,10 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -6978,7 +6978,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -6990,13 +6990,13 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
@@ -7018,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -7034,25 +7034,25 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -7068,19 +7068,19 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -7090,25 +7090,25 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238" t="n">
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -7152,19 +7152,19 @@
         <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -7174,10 +7174,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -7189,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -7202,16 +7202,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -7230,25 +7230,25 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -7292,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247" t="n">
         <v>1</v>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -7373,19 +7373,19 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>1</v>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
@@ -7413,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7460,13 +7460,13 @@
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -7494,13 +7494,13 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -7516,19 +7516,19 @@
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -7541,16 +7541,16 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -7566,7 +7566,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7575,16 +7575,16 @@
         <v>0</v>
       </c>
       <c r="E255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -7594,25 +7594,25 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7631,16 +7631,16 @@
         <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7650,16 +7650,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -7690,7 +7690,7 @@
         <v>1</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -7706,25 +7706,25 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -7743,13 +7743,13 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
         <v>1</v>
@@ -7765,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -7774,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -7793,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
@@ -7805,10 +7805,10 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -7833,10 +7833,10 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -7846,16 +7846,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -7874,10 +7874,10 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -7886,13 +7886,13 @@
         <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
         <v>1</v>
@@ -7914,10 +7914,10 @@
         <v>1</v>
       </c>
       <c r="F267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -7970,13 +7970,13 @@
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -7995,13 +7995,13 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8017,22 +8017,22 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>1</v>
       </c>
       <c r="F272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>1</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273" t="n">
         <v>1</v>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -8107,10 +8107,10 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -8129,10 +8129,10 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -8154,22 +8154,22 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -8182,25 +8182,25 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D278" t="n">
         <v>0</v>
@@ -8222,10 +8222,10 @@
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8241,22 +8241,22 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279" t="n">
         <v>1</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -8266,10 +8266,10 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
         <v>0</v>
@@ -8278,13 +8278,13 @@
         <v>1</v>
       </c>
       <c r="F280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -8294,7 +8294,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -8362,10 +8362,10 @@
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H283" t="n">
         <v>1</v>
@@ -8378,7 +8378,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -8393,10 +8393,10 @@
         <v>1</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -8412,16 +8412,16 @@
         <v>1</v>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285" t="n">
         <v>1</v>
@@ -8434,16 +8434,16 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -8474,13 +8474,13 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -8490,22 +8490,22 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F289" t="n">
         <v>1</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">

--- a/src/data/lluvia_generada.xlsx
+++ b/src/data/lluvia_generada.xlsx
@@ -19,6 +19,9 @@
     <t>Lote COD</t>
   </si>
   <si>
+    <t>day 0</t>
+  </si>
+  <si>
     <t>day 1</t>
   </si>
   <si>
@@ -35,9 +38,6 @@
   </si>
   <si>
     <t>day 6</t>
-  </si>
-  <si>
-    <t>day 7</t>
   </si>
   <si>
     <t>U_1_8_58_118</t>
@@ -1305,22 +1305,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1340,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1354,13 +1354,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1432,25 +1432,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1562,10 +1562,10 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1591,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1614,13 +1614,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1718,25 +1718,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1747,19 +1747,19 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1770,19 +1770,19 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1796,10 +1796,10 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1808,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1822,10 +1822,10 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1848,13 +1848,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1926,22 +1926,22 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1978,10 +1978,10 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2030,25 +2030,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2065,16 +2065,16 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2088,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2108,25 +2108,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2195,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2264,22 +2264,22 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2316,7 +2316,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2325,16 +2325,16 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2342,10 +2342,10 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2423,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2446,16 +2446,16 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2498,10 +2498,10 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2579,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2654,22 +2654,22 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2706,19 +2706,19 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2738,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2758,16 +2758,16 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2784,10 +2784,10 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2854,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2862,16 +2862,16 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2940,10 +2940,10 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2972,16 +2972,16 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3021,16 +3021,16 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3059,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3134,13 +3134,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3148,13 +3148,13 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3174,13 +3174,13 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3200,22 +3200,22 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3258,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3304,19 +3304,19 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3330,10 +3330,10 @@
         <v>86</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3356,13 +3356,13 @@
         <v>87</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3382,25 +3382,25 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3408,16 +3408,16 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3440,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3501,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3512,13 +3512,13 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3527,10 +3527,10 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3564,19 +3564,19 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3616,10 +3616,10 @@
         <v>97</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3642,13 +3642,13 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3657,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3674,19 +3674,19 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3758,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3772,22 +3772,22 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>104</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -3827,13 +3827,13 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3850,25 +3850,25 @@
         <v>106</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3879,22 +3879,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3908,13 +3908,13 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3934,19 +3934,19 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3957,13 +3957,13 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3995,10 +3995,10 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>112</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4018,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4035,16 +4035,16 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4084,22 +4084,22 @@
         <v>115</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>116</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4136,16 +4136,16 @@
         <v>117</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -4240,19 +4240,19 @@
         <v>121</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -4278,10 +4278,10 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -4301,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -4344,10 +4344,10 @@
         <v>125</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4370,22 +4370,22 @@
         <v>126</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4425,13 +4425,13 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>129</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4500,10 +4500,10 @@
         <v>131</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -4529,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4555,22 +4555,22 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4578,10 +4578,10 @@
         <v>134</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4604,10 +4604,10 @@
         <v>135</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4630,16 +4630,16 @@
         <v>136</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -4659,13 +4659,13 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -4723,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>140</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4743,16 +4743,16 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4763,13 +4763,13 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4795,16 +4795,16 @@
         <v>1</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4815,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4838,22 +4838,22 @@
         <v>144</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4864,22 +4864,22 @@
         <v>145</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -4890,10 +4890,10 @@
         <v>146</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4902,13 +4902,13 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4945,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>149</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -4980,13 +4980,13 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>150</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -5003,16 +5003,16 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5020,10 +5020,10 @@
         <v>151</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -5032,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>152</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>153</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -5081,16 +5081,16 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5098,22 +5098,22 @@
         <v>154</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>1</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -5130,16 +5130,16 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -5150,13 +5150,13 @@
         <v>156</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -5168,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5176,25 +5176,25 @@
         <v>157</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5202,16 +5202,16 @@
         <v>158</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>159</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -5269,10 +5269,10 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>161</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -5292,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -5306,7 +5306,7 @@
         <v>162</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5315,16 +5315,16 @@
         <v>1</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -5347,10 +5347,10 @@
         <v>1</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5370,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -5396,13 +5396,13 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5413,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -5422,13 +5422,13 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5439,22 +5439,22 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5468,19 +5468,19 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5488,16 +5488,16 @@
         <v>169</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -5529,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>171</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -5549,16 +5549,16 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5581,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5592,25 +5592,25 @@
         <v>173</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5618,19 +5618,19 @@
         <v>174</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -5644,7 +5644,7 @@
         <v>175</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -5653,16 +5653,16 @@
         <v>1</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5670,25 +5670,25 @@
         <v>176</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5696,22 +5696,22 @@
         <v>177</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -5731,13 +5731,13 @@
         <v>1</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -5748,22 +5748,22 @@
         <v>179</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -5774,22 +5774,22 @@
         <v>180</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -5800,10 +5800,10 @@
         <v>181</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5826,19 +5826,19 @@
         <v>182</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -5852,10 +5852,10 @@
         <v>183</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -5867,10 +5867,10 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5878,10 +5878,10 @@
         <v>184</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -5890,13 +5890,13 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5936,19 +5936,19 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5956,25 +5956,25 @@
         <v>187</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5982,16 +5982,16 @@
         <v>188</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -6014,10 +6014,10 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -6034,22 +6034,22 @@
         <v>190</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -6072,13 +6072,13 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>192</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -6095,16 +6095,16 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -6138,16 +6138,16 @@
         <v>194</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6167,22 +6167,22 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6193,22 +6193,22 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -6242,7 +6242,7 @@
         <v>198</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -6254,13 +6254,13 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6274,19 +6274,19 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6297,19 +6297,19 @@
         <v>0</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6346,13 +6346,13 @@
         <v>202</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -6372,19 +6372,19 @@
         <v>203</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197">
         <v>1</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -6427,22 +6427,22 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199">
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6453,13 +6453,13 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6476,10 +6476,10 @@
         <v>207</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -6505,13 +6505,13 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -6557,19 +6557,19 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -6595,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -6632,19 +6632,19 @@
         <v>213</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6687,16 +6687,16 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -6710,10 +6710,10 @@
         <v>216</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -6722,10 +6722,10 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -6739,10 +6739,10 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -6762,19 +6762,19 @@
         <v>218</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -6814,13 +6814,13 @@
         <v>220</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -6840,7 +6840,7 @@
         <v>221</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -6852,13 +6852,13 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6866,22 +6866,22 @@
         <v>222</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -6892,13 +6892,13 @@
         <v>223</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -6921,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -6947,10 +6947,10 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -6970,25 +6970,25 @@
         <v>226</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220">
         <v>0</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7022,22 +7022,22 @@
         <v>228</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -7060,13 +7060,13 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7074,10 +7074,10 @@
         <v>230</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -7092,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7103,22 +7103,22 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
         <v>1</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7138,13 +7138,13 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7158,19 +7158,19 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7181,13 +7181,13 @@
         <v>1</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D228">
         <v>1</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>235</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -7230,22 +7230,22 @@
         <v>236</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -7256,16 +7256,16 @@
         <v>237</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231">
         <v>0</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>238</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -7291,16 +7291,16 @@
         <v>1</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7308,19 +7308,19 @@
         <v>239</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>240</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -7343,16 +7343,16 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7372,13 +7372,13 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7389,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7412,10 +7412,10 @@
         <v>243</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -7424,13 +7424,13 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7441,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -7453,10 +7453,10 @@
         <v>0</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7464,16 +7464,16 @@
         <v>245</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7493,16 +7493,16 @@
         <v>1</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
         <v>1</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7519,19 +7519,19 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -7548,16 +7548,16 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -7571,10 +7571,10 @@
         <v>0</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7597,22 +7597,22 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>251</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -7635,10 +7635,10 @@
         <v>0</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>252</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -7658,13 +7658,13 @@
         <v>1</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246">
         <v>0</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7672,13 +7672,13 @@
         <v>253</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -7698,10 +7698,10 @@
         <v>254</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -7710,13 +7710,13 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7727,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7776,10 +7776,10 @@
         <v>257</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>1</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7805,19 +7805,19 @@
         <v>0</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
         <v>1</v>
@@ -7834,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -7854,10 +7854,10 @@
         <v>260</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -7866,10 +7866,10 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -7880,7 +7880,7 @@
         <v>261</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -7889,13 +7889,13 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
         <v>1</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -7906,16 +7906,16 @@
         <v>262</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>1</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7932,10 +7932,10 @@
         <v>263</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -7973,10 +7973,10 @@
         <v>1</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7984,19 +7984,19 @@
         <v>265</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259">
         <v>0</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -8019,16 +8019,16 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8039,19 +8039,19 @@
         <v>1</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261">
         <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>268</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -8114,13 +8114,13 @@
         <v>270</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -8132,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8146,19 +8146,19 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8166,25 +8166,25 @@
         <v>272</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266">
         <v>1</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8192,25 +8192,25 @@
         <v>273</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8218,10 +8218,10 @@
         <v>274</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>275</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -8276,16 +8276,16 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E270">
         <v>1</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8331,13 +8331,13 @@
         <v>1</v>
       </c>
       <c r="E272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -8348,19 +8348,19 @@
         <v>279</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273">
         <v>0</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -8377,22 +8377,22 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>281</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -8409,16 +8409,16 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8426,13 +8426,13 @@
         <v>282</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>283</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277">
         <v>0</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277">
         <v>0</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>285</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>286</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -8539,10 +8539,10 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281">
         <v>0</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8597,10 +8597,10 @@
         <v>1</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>289</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -8623,10 +8623,10 @@
         <v>0</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284">
         <v>1</v>
@@ -8652,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8672,13 +8672,13 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G285">
         <v>0</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>292</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -8715,22 +8715,22 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D287">
         <v>0</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>294</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -8753,10 +8753,10 @@
         <v>1</v>
       </c>
       <c r="G288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -8816,16 +8816,16 @@
         <v>297</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291">
         <v>0</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291">
         <v>1</v>

--- a/src/data/lluvia_generada.xlsx
+++ b/src/data/lluvia_generada.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -513,19 +513,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -603,13 +603,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -734,22 +734,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -765,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -849,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -942,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -958,19 +958,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1266,25 +1266,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1328,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1350,16 +1350,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1434,25 +1434,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1546,13 +1546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1580,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -1798,19 +1798,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1835,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1857,22 +1857,22 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1913,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -1938,13 +1938,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2190,22 +2190,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2283,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2302,16 +2302,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -2386,19 +2386,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2423,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -2442,22 +2442,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2470,19 +2470,19 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -2616,13 +2616,13 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -2650,13 +2650,13 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2703,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -2728,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2750,25 +2750,25 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2778,13 +2778,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -2793,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2834,25 +2834,25 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2862,25 +2862,25 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2918,25 +2918,25 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2974,25 +2974,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3005,22 +3005,22 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -3039,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3064,16 +3064,16 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -3095,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3145,16 +3145,16 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3170,25 +3170,25 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3210,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -3257,22 +3257,22 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3297,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -3366,10 +3366,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -3394,19 +3394,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -3549,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3562,13 +3562,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3590,25 +3590,25 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3677,10 +3677,10 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -3702,22 +3702,22 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -3761,22 +3761,22 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3826,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3848,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3901,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -3929,22 +3929,22 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3969,10 +3969,10 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4016,19 +4016,19 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4047,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4100,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4125,22 +4125,22 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -4178,19 +4178,19 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -4212,19 +4212,19 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -4246,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -4265,13 +4265,13 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4296,16 +4296,16 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4346,19 +4346,19 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -4374,25 +4374,25 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4405,22 +4405,22 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -4430,13 +4430,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -4495,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -4526,13 +4526,13 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4548,19 +4548,19 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4579,16 +4579,16 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4598,22 +4598,22 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -4660,19 +4660,19 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4691,16 +4691,16 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4710,25 +4710,25 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4741,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -4797,19 +4797,19 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>1</v>
@@ -4825,16 +4825,16 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -4868,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -4934,16 +4934,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4971,13 +4971,13 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -5021,13 +5021,13 @@
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5074,16 +5074,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5105,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -5130,25 +5130,25 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -5161,16 +5161,16 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5195,16 +5195,16 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -5229,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -5245,19 +5245,19 @@
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
@@ -5270,16 +5270,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -5298,19 +5298,19 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -5335,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -5357,22 +5357,22 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -5382,19 +5382,19 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -5425,10 +5425,10 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5438,19 +5438,19 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5478,13 +5478,13 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5528,13 +5528,13 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5553,13 +5553,13 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -5609,13 +5609,13 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5634,25 +5634,25 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5693,22 +5693,22 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5718,19 +5718,19 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5752,19 +5752,19 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
         <v>1</v>
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>1</v>
@@ -5802,22 +5802,22 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>1</v>
@@ -5839,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>1</v>
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -5873,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5898,13 +5898,13 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -5914,25 +5914,25 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -5954,13 +5954,13 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5979,16 +5979,16 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -6007,16 +6007,16 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -6029,13 +6029,13 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -6057,19 +6057,19 @@
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -6113,16 +6113,16 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -6141,22 +6141,22 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -6166,25 +6166,25 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -6197,13 +6197,13 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -6228,13 +6228,13 @@
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -6250,10 +6250,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
@@ -6278,16 +6278,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -6318,13 +6318,13 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -6334,7 +6334,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6365,22 +6365,22 @@
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -6390,7 +6390,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -6418,16 +6418,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
@@ -6446,16 +6446,16 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
         <v>1</v>
@@ -6502,25 +6502,25 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -6542,13 +6542,13 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>
@@ -6589,16 +6589,16 @@
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -6620,19 +6620,19 @@
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -6645,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -6673,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -6698,19 +6698,19 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
@@ -6726,16 +6726,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -6760,16 +6760,16 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -6838,10 +6838,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -6875,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -6897,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>1</v>
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
@@ -6937,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -6953,13 +6953,13 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
@@ -6968,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -6978,22 +6978,22 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -7021,10 +7021,10 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -7034,25 +7034,25 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -7062,19 +7062,19 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -7090,25 +7090,25 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -7127,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -7149,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -7208,19 +7208,19 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
@@ -7258,7 +7258,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244" t="n">
         <v>1</v>
@@ -7286,10 +7286,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -7298,13 +7298,13 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -7323,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -7342,25 +7342,25 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -7379,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
         <v>1</v>
@@ -7398,10 +7398,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249" t="n">
         <v>1</v>
@@ -7432,16 +7432,16 @@
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>1</v>
@@ -7454,25 +7454,25 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
         <v>1</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -7482,25 +7482,25 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -7513,13 +7513,13 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -7538,13 +7538,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
@@ -7553,10 +7553,10 @@
         <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -7566,10 +7566,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -7581,10 +7581,10 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -7609,10 +7609,10 @@
         <v>1</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -7659,13 +7659,13 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -7693,10 +7693,10 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -7706,13 +7706,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E260" t="n">
         <v>1</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260" t="n">
         <v>1</v>
@@ -7743,13 +7743,13 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -7765,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262" t="n">
         <v>1</v>
@@ -7774,13 +7774,13 @@
         <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
@@ -7805,10 +7805,10 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7827,16 +7827,16 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -7846,19 +7846,19 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
@@ -7874,13 +7874,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E266" t="n">
         <v>1</v>
@@ -7889,10 +7889,10 @@
         <v>1</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -7905,16 +7905,16 @@
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G267" t="n">
         <v>0</v>
@@ -7930,10 +7930,10 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268" t="n">
         <v>1</v>
@@ -7942,13 +7942,13 @@
         <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -7964,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269" t="n">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8014,16 +8014,16 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271" t="n">
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -8051,16 +8051,16 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" t="n">
         <v>1</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>1</v>
@@ -8098,22 +8098,22 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8126,10 +8126,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D275" t="n">
         <v>1</v>
@@ -8141,10 +8141,10 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -8154,10 +8154,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -8182,16 +8182,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" t="n">
         <v>1</v>
@@ -8216,16 +8216,16 @@
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8241,22 +8241,22 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -8278,10 +8278,10 @@
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -8322,25 +8322,25 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284" t="n">
         <v>1</v>
@@ -8409,13 +8409,13 @@
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285" t="n">
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -8434,22 +8434,22 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E286" t="n">
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H286" t="n">
         <v>1</v>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="D287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287" t="n">
         <v>1</v>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287" t="n">
         <v>1</v>
@@ -8490,10 +8490,10 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
         <v>0</v>
@@ -8502,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -8518,25 +8518,25 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -8546,16 +8546,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -8574,28 +8574,28 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291" t="n">
         <v>1</v>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/data/lluvia_generada.xlsx
+++ b/src/data/lluvia_generada.xlsx
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -519,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -706,22 +706,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -734,22 +734,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -796,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -846,25 +846,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -936,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -961,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1322,13 +1322,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1462,13 +1462,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1490,10 +1490,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1521,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1558,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1574,13 +1574,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1605,16 +1605,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1636,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1658,13 +1658,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1692,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -1832,16 +1832,16 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -1857,13 +1857,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -1910,22 +1910,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -1938,22 +1938,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2025,22 +2025,22 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2084,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2115,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2196,19 +2196,19 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2305,22 +2305,22 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2333,22 +2333,22 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2361,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -2373,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2420,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2442,19 +2442,19 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2582,25 +2582,25 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2638,19 +2638,19 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -2703,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2722,16 +2722,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -2750,25 +2750,25 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2778,22 +2778,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -2865,19 +2865,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -2896,19 +2896,19 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2918,13 +2918,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2989,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3058,13 +3058,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3095,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3120,19 +3120,19 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -3182,13 +3182,13 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -3226,25 +3226,25 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3266,10 +3266,10 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3282,16 +3282,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3369,22 +3369,22 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3400,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3453,22 +3453,22 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3481,22 +3481,22 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -3534,25 +3534,25 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3568,16 +3568,16 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3646,25 +3646,25 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -3730,13 +3730,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3758,13 +3758,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -3792,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3814,16 +3814,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3842,13 +3842,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -3870,25 +3870,25 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3954,25 +3954,25 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3985,19 +3985,19 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4041,22 +4041,22 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4066,25 +4066,25 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4097,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4125,22 +4125,22 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -4193,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -4377,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -4411,16 +4411,16 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4433,10 +4433,10 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4470,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -4486,25 +4486,25 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4517,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4545,19 +4545,19 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -4629,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -4641,10 +4641,10 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -4666,13 +4666,13 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4682,25 +4682,25 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -4713,19 +4713,19 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -4741,19 +4741,19 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4825,16 +4825,16 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4878,25 +4878,25 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -4921,10 +4921,10 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -5005,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5018,16 +5018,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5111,13 +5111,13 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -5192,16 +5192,16 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -5242,22 +5242,22 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
@@ -5273,16 +5273,16 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -5301,22 +5301,22 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -5335,16 +5335,16 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -5354,25 +5354,25 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -5391,16 +5391,16 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -5441,13 +5441,13 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -5484,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -5503,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -5522,25 +5522,25 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -5593,10 +5593,10 @@
         <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5606,22 +5606,22 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -5637,22 +5637,22 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -5674,13 +5674,13 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -5702,10 +5702,10 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -5780,16 +5780,16 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>1</v>
@@ -5808,19 +5808,19 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5839,10 +5839,10 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -5942,25 +5942,25 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5973,22 +5973,22 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6001,13 +6001,13 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -6029,22 +6029,22 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -6054,10 +6054,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -6085,19 +6085,19 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>1</v>
@@ -6116,19 +6116,19 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
@@ -6250,25 +6250,25 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -6287,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -6346,10 +6346,10 @@
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6374,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6399,13 +6399,13 @@
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6430,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -6452,13 +6452,13 @@
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -6505,22 +6505,22 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -6542,13 +6542,13 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -6586,10 +6586,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -6617,19 +6617,19 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
@@ -6648,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6704,16 +6704,16 @@
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -6726,22 +6726,22 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
         <v>1</v>
@@ -6760,19 +6760,19 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -6791,16 +6791,16 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6847,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
@@ -6866,16 +6866,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6925,16 +6925,16 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>1</v>
@@ -6978,19 +6978,19 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -7009,10 +7009,10 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
@@ -7093,19 +7093,19 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" t="n">
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
         <v>1</v>
@@ -7130,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -7146,25 +7146,25 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -7177,13 +7177,13 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -7214,13 +7214,13 @@
         <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -7230,13 +7230,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
@@ -7258,25 +7258,25 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -7289,13 +7289,13 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -7317,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -7348,19 +7348,19 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -7373,10 +7373,10 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -7413,10 +7413,10 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -7429,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -7444,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -7457,22 +7457,22 @@
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -7485,10 +7485,10 @@
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
@@ -7510,10 +7510,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
         <v>1</v>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -7547,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" t="n">
         <v>1</v>
@@ -7569,10 +7569,10 @@
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
@@ -7581,10 +7581,10 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -7600,19 +7600,19 @@
         <v>1</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -7634,13 +7634,13 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -7678,13 +7678,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -7709,22 +7709,22 @@
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262" t="n">
         <v>1</v>
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263" t="n">
         <v>1</v>
@@ -7824,10 +7824,10 @@
         <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -7846,19 +7846,19 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
@@ -7874,16 +7874,16 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F266" t="n">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -7911,16 +7911,16 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -7933,22 +7933,22 @@
         <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -7967,16 +7967,16 @@
         <v>0</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -8014,25 +8014,25 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272" t="n">
         <v>1</v>
@@ -8082,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -8101,19 +8101,19 @@
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" t="n">
         <v>1</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -8126,25 +8126,25 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -8157,16 +8157,16 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
@@ -8191,13 +8191,13 @@
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
         <v>1</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
         <v>1</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" t="n">
         <v>0</v>
@@ -8241,19 +8241,19 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279" t="n">
         <v>1</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D281" t="n">
         <v>1</v>
@@ -8322,13 +8322,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E282" t="n">
         <v>0</v>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8353,10 +8353,10 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -8412,19 +8412,19 @@
         <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8446,10 +8446,10 @@
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
         <v>1</v>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E287" t="n">
         <v>1</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -8493,13 +8493,13 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288" t="n">
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="n">
         <v>1</v>
@@ -8508,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -8518,25 +8518,25 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -8546,22 +8546,22 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -8574,7 +8574,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -8583,10 +8583,10 @@
         <v>0</v>
       </c>
       <c r="E291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
